--- a/Java курсы ВИШ МИФИ.xlsx
+++ b/Java курсы ВИШ МИФИ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\java_labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67755A2-8086-42EC-AB58-E0A641CB2CCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38B2C3B-DAFD-49FA-89D0-A59364277EC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Перечень задач" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ссылка</t>
   </si>
@@ -46,33 +45,6 @@
   </si>
   <si>
     <t>Примечания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Установить среду разработки Eclipse. </t>
-  </si>
-  <si>
-    <t>https://o7planning.org/ru/10379/installing-and-configuring-eclipse</t>
-  </si>
-  <si>
-    <t>Создание и поддержка ПО</t>
-  </si>
-  <si>
-    <t>Установка программ</t>
-  </si>
-  <si>
-    <t>Рекомендую также рассмотреть альтернативу в виде intellij idea community edition</t>
-  </si>
-  <si>
-    <t>Повторить первые 20 уроков из видео курса</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/spreadsheets/d/1VQvzqiV4PEkxX9arZ4xa3jivvOeZwiSENN_czxcOwPo/edit#gid=1316148490</t>
-  </si>
-  <si>
-    <t>За короткое время научиться создавать простые приложения в среде разработки Eclipse. Знакомство с базовым синтаксисом языка</t>
-  </si>
-  <si>
-    <t>нет</t>
   </si>
   <si>
     <t xml:space="preserve">Требуется написать программу которая будет решать уравнение ax^2+bx+c==0 при любых a,b,c . Решение уравнение нужно вынести в отдельный метод, который ожидает целочисленные a,b,c на вход и печатает строку. 
@@ -184,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,9 +164,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,7 +392,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,140 +429,104 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A21" si="0">A2+1</f>
+        <f t="shared" ref="A3:A7" si="0">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <f t="shared" si="0"/>
+        <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -601,7 +534,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -609,7 +542,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -617,7 +550,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -625,7 +558,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -689,10 +622,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" location="gid=1316148490" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
